--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:10:30+00:00</t>
+    <t>2024-12-06T22:29:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:29:10+00:00</t>
+    <t>2024-12-06T22:30:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:30:44+00:00</t>
+    <t>2024-12-19T17:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T17:58:53+00:00</t>
+    <t>2024-12-30T06:22:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-30T06:22:02+00:00</t>
+    <t>2025-01-02T00:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T00:27:00+00:00</t>
+    <t>2025-01-13T13:43:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T13:43:27+00:00</t>
+    <t>2025-01-13T15:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:57:06+00:00</t>
+    <t>2025-01-13T16:44:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:44:09+00:00</t>
+    <t>2025-01-13T18:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:26:13+00:00</t>
+    <t>2025-01-13T18:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:28:16+00:00</t>
+    <t>2025-01-14T02:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T02:52:20+00:00</t>
+    <t>2025-01-21T18:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T18:11:19+00:00</t>
+    <t>2025-01-28T16:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="349">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T16:09:20+00:00</t>
+    <t>2025-01-30T04:52:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>A profile of HIV Lab Test Specimen</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1325,66 +1328,68 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1445,129 +1450,129 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1575,10 +1580,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>21</v>
@@ -1590,13 +1595,13 @@
         <v>21</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1647,22 +1652,22 @@
         <v>21</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>21</v>
@@ -1673,10 +1678,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1684,10 +1689,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>21</v>
@@ -1696,19 +1701,19 @@
         <v>21</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1758,13 +1763,13 @@
         <v>21</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>21</v>
@@ -1784,10 +1789,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1795,10 +1800,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>21</v>
@@ -1807,16 +1812,16 @@
         <v>21</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1867,19 +1872,19 @@
         <v>21</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>21</v>
@@ -1893,10 +1898,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1904,31 +1909,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1978,19 +1983,19 @@
         <v>21</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>21</v>
@@ -2004,10 +2009,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2015,10 +2020,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>21</v>
@@ -2030,16 +2035,16 @@
         <v>21</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2065,13 +2070,13 @@
         <v>21</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>21</v>
@@ -2089,19 +2094,19 @@
         <v>21</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>21</v>
@@ -2115,21 +2120,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>21</v>
@@ -2141,16 +2146,16 @@
         <v>21</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2200,22 +2205,22 @@
         <v>21</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>21</v>
@@ -2226,21 +2231,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>21</v>
@@ -2252,16 +2257,16 @@
         <v>21</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2311,13 +2316,13 @@
         <v>21</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>21</v>
@@ -2326,7 +2331,7 @@
         <v>21</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>21</v>
@@ -2337,21 +2342,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>21</v>
@@ -2363,16 +2368,16 @@
         <v>21</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2422,22 +2427,22 @@
         <v>21</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>21</v>
@@ -2448,45 +2453,45 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>21</v>
@@ -2535,22 +2540,22 @@
         <v>21</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>21</v>
@@ -2561,10 +2566,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2572,10 +2577,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>21</v>
@@ -2584,16 +2589,16 @@
         <v>21</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2644,36 +2649,36 @@
         <v>21</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2681,10 +2686,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>21</v>
@@ -2693,16 +2698,16 @@
         <v>21</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2753,36 +2758,36 @@
         <v>21</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2790,31 +2795,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2840,13 +2845,13 @@
         <v>21</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>21</v>
@@ -2864,36 +2869,36 @@
         <v>21</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2901,10 +2906,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>21</v>
@@ -2913,19 +2918,19 @@
         <v>21</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2951,13 +2956,13 @@
         <v>21</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>21</v>
@@ -2975,36 +2980,36 @@
         <v>21</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3012,10 +3017,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>21</v>
@@ -3024,20 +3029,20 @@
         <v>21</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>21</v>
@@ -3086,25 +3091,25 @@
         <v>21</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>21</v>
@@ -3112,10 +3117,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3123,10 +3128,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>21</v>
@@ -3135,16 +3140,16 @@
         <v>21</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3195,36 +3200,36 @@
         <v>21</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3232,10 +3237,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>21</v>
@@ -3247,16 +3252,16 @@
         <v>21</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3306,22 +3311,22 @@
         <v>21</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>21</v>
@@ -3332,10 +3337,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3343,10 +3348,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>21</v>
@@ -3358,16 +3363,16 @@
         <v>21</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3417,36 +3422,36 @@
         <v>21</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3454,10 +3459,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>21</v>
@@ -3469,13 +3474,13 @@
         <v>21</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3526,36 +3531,36 @@
         <v>21</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3563,10 +3568,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>21</v>
@@ -3578,13 +3583,13 @@
         <v>21</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3635,13 +3640,13 @@
         <v>21</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>21</v>
@@ -3650,7 +3655,7 @@
         <v>21</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>21</v>
@@ -3661,21 +3666,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>21</v>
@@ -3687,16 +3692,16 @@
         <v>21</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3746,22 +3751,22 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>21</v>
@@ -3772,45 +3777,45 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>21</v>
@@ -3859,22 +3864,22 @@
         <v>21</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>21</v>
@@ -3885,10 +3890,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3896,10 +3901,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>21</v>
@@ -3908,16 +3913,16 @@
         <v>21</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3968,36 +3973,36 @@
         <v>21</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4005,10 +4010,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>21</v>
@@ -4017,16 +4022,16 @@
         <v>21</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4077,36 +4082,36 @@
         <v>21</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4114,10 +4119,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>21</v>
@@ -4126,16 +4131,16 @@
         <v>21</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4186,25 +4191,25 @@
         <v>21</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>21</v>
@@ -4212,10 +4217,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4223,10 +4228,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>21</v>
@@ -4238,13 +4243,13 @@
         <v>21</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4295,36 +4300,36 @@
         <v>21</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4332,10 +4337,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>21</v>
@@ -4347,13 +4352,13 @@
         <v>21</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4380,13 +4385,13 @@
         <v>21</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>21</v>
@@ -4404,36 +4409,36 @@
         <v>21</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4441,10 +4446,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>21</v>
@@ -4456,16 +4461,16 @@
         <v>21</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4491,13 +4496,13 @@
         <v>21</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>21</v>
@@ -4515,36 +4520,36 @@
         <v>21</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4552,10 +4557,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>21</v>
@@ -4564,22 +4569,22 @@
         <v>21</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>21</v>
@@ -4604,13 +4609,13 @@
         <v>21</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>21</v>
@@ -4628,19 +4633,19 @@
         <v>21</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>21</v>
@@ -4649,15 +4654,15 @@
         <v>21</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4665,10 +4670,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>21</v>
@@ -4680,13 +4685,13 @@
         <v>21</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4737,22 +4742,22 @@
         <v>21</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>21</v>
@@ -4763,10 +4768,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4774,10 +4779,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>21</v>
@@ -4789,13 +4794,13 @@
         <v>21</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4846,13 +4851,13 @@
         <v>21</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>21</v>
@@ -4861,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>21</v>
@@ -4872,21 +4877,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>21</v>
@@ -4898,16 +4903,16 @@
         <v>21</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4957,22 +4962,22 @@
         <v>21</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>21</v>
@@ -4983,45 +4988,45 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>21</v>
@@ -5070,22 +5075,22 @@
         <v>21</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>21</v>
@@ -5096,10 +5101,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5107,10 +5112,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>21</v>
@@ -5122,13 +5127,13 @@
         <v>21</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5179,22 +5184,22 @@
         <v>21</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>21</v>
@@ -5205,10 +5210,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5216,10 +5221,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>21</v>
@@ -5231,13 +5236,13 @@
         <v>21</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5264,13 +5269,13 @@
         <v>21</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>21</v>
@@ -5288,22 +5293,22 @@
         <v>21</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>21</v>
@@ -5314,10 +5319,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5325,10 +5330,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>21</v>
@@ -5340,13 +5345,13 @@
         <v>21</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5397,36 +5402,36 @@
         <v>21</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5434,10 +5439,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>21</v>
@@ -5449,13 +5454,13 @@
         <v>21</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5506,22 +5511,22 @@
         <v>21</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>21</v>
@@ -5532,10 +5537,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5543,10 +5548,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>21</v>
@@ -5558,13 +5563,13 @@
         <v>21</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5615,22 +5620,22 @@
         <v>21</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>21</v>
@@ -5641,10 +5646,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5652,10 +5657,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>21</v>
@@ -5667,13 +5672,13 @@
         <v>21</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5724,13 +5729,13 @@
         <v>21</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>21</v>
@@ -5739,7 +5744,7 @@
         <v>21</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>21</v>
@@ -5750,21 +5755,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>21</v>
@@ -5776,16 +5781,16 @@
         <v>21</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5835,22 +5840,22 @@
         <v>21</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>21</v>
@@ -5861,45 +5866,45 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>21</v>
@@ -5948,22 +5953,22 @@
         <v>21</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>21</v>
@@ -5974,10 +5979,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5985,10 +5990,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>21</v>
@@ -5997,16 +6002,16 @@
         <v>21</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6057,36 +6062,36 @@
         <v>21</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6094,10 +6099,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>21</v>
@@ -6109,13 +6114,13 @@
         <v>21</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6166,22 +6171,22 @@
         <v>21</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>21</v>
@@ -6192,10 +6197,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6203,10 +6208,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>21</v>
@@ -6218,13 +6223,13 @@
         <v>21</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6251,13 +6256,13 @@
         <v>21</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>21</v>
@@ -6275,36 +6280,36 @@
         <v>21</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6312,10 +6317,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>21</v>
@@ -6327,13 +6332,13 @@
         <v>21</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6384,36 +6389,36 @@
         <v>21</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6421,10 +6426,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>21</v>
@@ -6436,13 +6441,13 @@
         <v>21</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6493,36 +6498,36 @@
         <v>21</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6530,10 +6535,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>21</v>
@@ -6545,13 +6550,13 @@
         <v>21</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6578,13 +6583,13 @@
         <v>21</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>21</v>
@@ -6602,36 +6607,36 @@
         <v>21</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6639,10 +6644,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>21</v>
@@ -6651,22 +6656,22 @@
         <v>21</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>21</v>
@@ -6691,13 +6696,13 @@
         <v>21</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>21</v>
@@ -6715,19 +6720,19 @@
         <v>21</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>21</v>
@@ -6736,15 +6741,15 @@
         <v>21</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6752,10 +6757,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>21</v>
@@ -6767,13 +6772,13 @@
         <v>21</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6824,28 +6829,28 @@
         <v>21</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T04:52:13+00:00</t>
+    <t>2025-01-30T07:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T07:19:17+00:00</t>
+    <t>2025-01-30T16:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:12:52+00:00</t>
+    <t>2025-01-31T23:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T23:17:43+00:00</t>
+    <t>2025-02-01T06:48:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T06:48:33+00:00</t>
+    <t>2025-02-01T23:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivLabTestSpecimen.xlsx
+++ b/StructureDefinition-HivLabTestSpecimen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:38:57+00:00</t>
+    <t>2025-02-07T14:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
